--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="136">
   <si>
     <t>WorflowName</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>2024-03-06 01:44:34 PM</t>
-  </si>
-  <si>
-    <t>CT. Wed, Mar 06, 2024 at 1:49 PM</t>
   </si>
   <si>
     <t>CreateEntityTarget</t>
@@ -338,15 +335,6 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>2024-03-19 02:52:20 PM</t>
-  </si>
-  <si>
-    <t>2024-03-19 02:58:10 PM</t>
-  </si>
-  <si>
     <t>0231907562</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t>0472103025</t>
   </si>
   <si>
-    <t>RsoftIT</t>
-  </si>
-  <si>
     <t>Default Success Text</t>
   </si>
   <si>
@@ -425,14 +410,37 @@
     <t>2024-03-20</t>
   </si>
   <si>
-    <t>2024-03-20 05:35:09 PM</t>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-22 12:16:29 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 12:19 PM</t>
+  </si>
+  <si>
+    <t>03:30:20 PM</t>
+  </si>
+  <si>
+    <t>2024-03-20 03:30:58 PM</t>
+  </si>
+  <si>
+    <t>Rsoft IT</t>
+  </si>
+  <si>
+    <t>2024-03-22 01:27:47 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 1:30 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-10409]hh:mm:ss\ AM/PM;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,13 +509,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -799,63 +807,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="16" max="16" style="2" width="8.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="2"/>
+    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.36328125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -981,10 +989,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1016,13 +1024,13 @@
     </row>
     <row r="2" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1034,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1057,14 +1065,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>133</v>
+      <c r="O2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1100,16 +1108,16 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1118,19 +1126,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1139,7 +1147,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1151,13 +1159,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1183,63 +1191,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1365,10 +1373,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1400,13 +1408,13 @@
     </row>
     <row r="2" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1418,10 +1426,10 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1442,13 +1450,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1463,7 +1471,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1484,16 +1492,16 @@
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1502,19 +1510,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1523,10 +1531,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -1535,13 +1543,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1566,60 +1574,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1745,10 +1753,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1780,13 +1788,13 @@
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1798,10 +1806,10 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1843,7 +1851,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1858,13 +1866,13 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -1873,7 +1881,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1882,19 +1890,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1903,7 +1911,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1915,7 +1923,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -1944,62 +1952,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2125,10 +2133,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2160,28 +2168,28 @@
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2223,7 +2231,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2238,13 +2246,13 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -2253,7 +2261,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2262,19 +2270,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2283,10 +2291,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -2295,10 +2303,10 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2317,34 +2325,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.90625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="29" max="29" customWidth="true" width="30.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.90625" customWidth="1"/>
+    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2470,10 +2479,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2499,25 +2508,25 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2526,37 +2535,37 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="8">
-        <v>45371</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.64606481481481481</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>45371.646504629629</v>
+        <v>112</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2565,10 +2574,10 @@
         <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2580,19 +2589,19 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>45371</v>
+        <v>118</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2601,22 +2610,22 @@
         <v>1234567890</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2628,10 +2637,10 @@
         <v>1234567890</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2640,10 +2649,10 @@
         <v>1234567890</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
   <si>
     <t>WorflowName</t>
   </si>
@@ -432,6 +432,30 @@
   </si>
   <si>
     <t>CT: Fri, Mar 22, 2024 at 1:30 PM</t>
+  </si>
+  <si>
+    <t>2024-03-22 02:30:32 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 2:33 PM</t>
+  </si>
+  <si>
+    <t>2024-03-22 02:38:17 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 2:41 PM</t>
+  </si>
+  <si>
+    <t>2024-03-22 03:30:27 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 3:33 PM</t>
+  </si>
+  <si>
+    <t>2024-03-22 03:38:18 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 3:41 PM</t>
   </si>
 </sst>
 </file>
@@ -807,55 +831,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="2"/>
-    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.36328125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="9" max="9" style="2" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="13" max="14" style="2" width="8.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="16" max="16" style="2" width="8.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="21" max="21" style="2" width="8.7265625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
+    <col min="55" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1018,7 +1042,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1065,14 +1089,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
+      <c r="Q2" t="s" s="2">
+        <v>140</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1110,7 +1134,7 @@
       <c r="AC2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
@@ -1131,7 +1155,7 @@
       <c r="AJ2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AR2" s="2" t="s">
@@ -1164,8 +1188,8 @@
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>135</v>
+      <c r="BB2" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1191,55 +1215,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1402,7 +1426,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1449,14 +1473,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>129</v>
+      <c r="Q2" t="s" s="2">
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1494,7 +1518,7 @@
       <c r="AC2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
@@ -1548,8 +1572,8 @@
       <c r="BA2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>130</v>
+      <c r="BB2" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1574,52 +1598,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1952,54 +1976,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -2331,21 +2355,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.90625" customWidth="1"/>
-    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.90625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="29" max="29" customWidth="true" width="30.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2508,7 +2532,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>80</v>
       </c>
     </row>
@@ -2651,8 +2675,8 @@
       <c r="BA2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BB2" t="s">
-        <v>135</v>
+      <c r="BB2" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="161">
   <si>
     <t>WorflowName</t>
   </si>
@@ -456,6 +456,57 @@
   </si>
   <si>
     <t>CT: Fri, Mar 22, 2024 at 3:41 PM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-03-22 04:18:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 4:21 PM</t>
+  </si>
+  <si>
+    <t>2024-03-22 04:25:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 4:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Mar 22, 2024 at 4:33 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-23 01:02:23 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:05 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23 01:10:11 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:13 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:17 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23 01:24:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:27 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23 01:31:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:34 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:39 PM</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1141,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1135,7 +1186,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1189,7 +1240,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1474,13 +1525,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1519,7 +1570,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1573,7 +1624,7 @@
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2727,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="162">
   <si>
     <t>WorflowName</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>CT: Sat, Mar 23, 2024 at 1:39 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 4:34 PM</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2730,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="170">
   <si>
     <t>WorflowName</t>
   </si>
@@ -410,15 +410,6 @@
     <t>2024-03-20</t>
   </si>
   <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>2024-03-22 12:16:29 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 12:19 PM</t>
-  </si>
-  <si>
     <t>03:30:20 PM</t>
   </si>
   <si>
@@ -428,88 +419,121 @@
     <t>Rsoft IT</t>
   </si>
   <si>
-    <t>2024-03-22 01:27:47 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 1:30 PM</t>
-  </si>
-  <si>
-    <t>2024-03-22 02:30:32 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 2:33 PM</t>
-  </si>
-  <si>
-    <t>2024-03-22 02:38:17 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 2:41 PM</t>
-  </si>
-  <si>
-    <t>2024-03-22 03:30:27 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 3:33 PM</t>
-  </si>
-  <si>
-    <t>2024-03-22 03:38:18 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 3:41 PM</t>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:27 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23 01:31:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Mar 23, 2024 at 1:34 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-25 07:18:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 7:21 PM</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2024-03-22 04:18:05 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 4:21 PM</t>
-  </si>
-  <si>
-    <t>2024-03-22 04:25:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 4:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Mar 22, 2024 at 4:33 PM</t>
-  </si>
-  <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
-    <t>2024-03-23 01:02:23 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:05 PM</t>
-  </si>
-  <si>
-    <t>2024-03-23 01:10:11 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:13 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:17 PM</t>
-  </si>
-  <si>
-    <t>2024-03-23 01:24:06 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:27 PM</t>
-  </si>
-  <si>
-    <t>2024-03-23 01:31:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:34 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:39 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 4:34 PM</t>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-03 01:39:32 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 1:42 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 01:47:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 1:50 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 1:55 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 02:18:07 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 2:20 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 02:25:57 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 2:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 2:33 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 02:47:39 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 2:50 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 02:55:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 2:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 3:03 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 03:21:38 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 3:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 03:29:31 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 3:32 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 03:57:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 04:18:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 04:32:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 4:34 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 04:39:53 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 4:42 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 06:16:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 6:18 PM</t>
+  </si>
+  <si>
+    <t>2024-04-03 06:23:52 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 6:26 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 6:31 PM</t>
   </si>
 </sst>
 </file>
@@ -883,60 +907,60 @@
       <selection activeCell="AH2" sqref="AH2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="16" max="16" style="2" width="8.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
     <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1100,7 +1124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1144,13 +1168,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1189,7 +1213,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1210,7 +1234,7 @@
         <v>125</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>86</v>
@@ -1243,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1267,60 +1291,60 @@
       <selection activeCell="AH2" sqref="AH2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1484,7 +1508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1528,13 +1552,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1573,7 +1597,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1627,7 +1651,7 @@
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1650,57 +1674,57 @@
       <selection activeCell="AH2" sqref="AH2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2028,59 +2052,59 @@
       <selection activeCell="AH2" sqref="AH2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2244,7 +2268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2404,29 +2428,29 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.90625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="29" max="29" customWidth="true" width="30.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="29" max="29" customWidth="true" width="30.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2601,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>107</v>
@@ -2637,10 +2661,10 @@
         <v>127</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>113</v>
@@ -2730,7 +2754,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="176">
   <si>
     <t>WorflowName</t>
   </si>
@@ -534,6 +534,24 @@
   </si>
   <si>
     <t>CT: Wed, Apr 03, 2024 at 6:31 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-05 06:58:56 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:01 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 07:06:33 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:09 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:14 PM</t>
   </si>
 </sst>
 </file>
@@ -1168,13 +1186,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1213,7 +1231,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1267,7 +1285,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1552,13 +1570,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1597,7 +1615,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1651,7 +1669,7 @@
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2772,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="182">
   <si>
     <t>WorflowName</t>
   </si>
@@ -552,6 +552,24 @@
   </si>
   <si>
     <t>CT: Fri, Apr 05, 2024 at 7:14 PM</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-09 04:47:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 4:50 PM</t>
+  </si>
+  <si>
+    <t>2024-04-09 04:55:35 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 4:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 5:04 PM</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1204,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1231,7 +1249,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1285,7 +1303,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1570,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1615,7 +1633,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1669,7 +1687,7 @@
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2790,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
   <si>
     <t>WorflowName</t>
   </si>
@@ -570,6 +570,24 @@
   </si>
   <si>
     <t>CT: Tue, Apr 09, 2024 at 5:04 PM</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-10 12:52:39 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:55 PM</t>
+  </si>
+  <si>
+    <t>2024-04-10 01:00:53 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 1:03 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 1:09 PM</t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1222,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1249,7 +1267,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1303,7 +1321,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1588,13 +1606,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>102</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1633,7 +1651,7 @@
         <v>91</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1687,7 +1705,7 @@
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2808,7 @@
         <v>122</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="138">
   <si>
     <t>WorflowName</t>
   </si>
@@ -298,10 +298,6 @@
     <t>11111111111</t>
   </si>
   <si>
-    <t>India's First Lead Management System with
-"Auto Lead Call Distribution With Call Recording"</t>
-  </si>
-  <si>
     <t>SummaryAddNewLead@gmail.com</t>
   </si>
   <si>
@@ -314,9 +310,6 @@
     <t>DuplicateEnquiry@gmail.com</t>
   </si>
   <si>
-    <t>Sales Team Management module helps sales team to plan, prioritize daily activities such as calls, followups &amp; Visits. The module consists of Activity Screen, Due Date, Time, Email/SMS Reminders, Activity Completion Notes.</t>
-  </si>
-  <si>
     <t>Edit Record</t>
   </si>
   <si>
@@ -380,9 +373,6 @@
     <t>Enquiry about CRM</t>
   </si>
   <si>
-    <t>It has turned out to be a pharma week of sorts, in some ways unexpectedly so. In a completely non-medical sense, pharma companies were among those named in the purchase of electoral bonds, over the week. While the details on who gave whom exactly what amount when will be clear in a couple of days, it is a clear indication of the growing clout of the pharma sector in the country</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
@@ -404,9 +394,6 @@
     <t>tskCreateEntity_SuccessUpdate</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2024-03-20</t>
   </si>
   <si>
@@ -419,175 +406,37 @@
     <t>Rsoft IT</t>
   </si>
   <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:27 PM</t>
-  </si>
-  <si>
-    <t>2024-03-23 01:31:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Mar 23, 2024 at 1:34 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-25 07:18:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 7:21 PM</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-03 01:39:32 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 1:42 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 01:47:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 1:50 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 1:55 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 02:18:07 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 2:20 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 02:25:57 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 2:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 2:33 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 02:47:39 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 2:50 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 02:55:30 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 2:58 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 3:03 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 03:21:38 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 3:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 03:29:31 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 3:32 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 03:57:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 04:18:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 04:32:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 4:34 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 04:39:53 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 4:42 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 06:16:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 6:18 PM</t>
-  </si>
-  <si>
-    <t>2024-04-03 06:23:52 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 6:26 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 03, 2024 at 6:31 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-04-05 06:58:56 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:01 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 07:06:33 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:09 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:14 PM</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-04-09 04:47:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 4:50 PM</t>
-  </si>
-  <si>
-    <t>2024-04-09 04:55:35 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 4:58 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 5:04 PM</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-04-10 12:52:39 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 12:55 PM</t>
-  </si>
-  <si>
-    <t>2024-04-10 01:00:53 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 1:03 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 1:09 PM</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-03 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 3:41 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 3:50 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 3:56 PM</t>
+  </si>
+  <si>
+    <t>Add New Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Summary Add New Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Duplicate Add Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Edit &amp; Save Add New Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>Success Enquiry Text Area</t>
   </si>
 </sst>
 </file>
@@ -957,64 +806,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AJ2"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="9" max="9" style="2" width="8.7109375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="13" max="14" style="2" width="8.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="16" max="16" style="2" width="8.7109375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="21" max="21" style="2" width="8.7109375"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
-    <col min="55" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="2"/>
+    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.453125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1174,11 +1023,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1186,7 +1035,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1198,7 +1047,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1221,14 +1070,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>183</v>
+      <c r="O2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1264,16 +1113,16 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1282,13 +1131,13 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>86</v>
@@ -1303,7 +1152,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1315,13 +1164,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" t="s" s="2">
-        <v>184</v>
+      <c r="BB2" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1341,64 +1190,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AJ2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1558,11 +1407,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1570,7 +1419,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1582,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>89</v>
@@ -1605,14 +1454,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>185</v>
+      <c r="O2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1648,16 +1497,16 @@
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>182</v>
+        <v>134</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1666,10 +1515,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
@@ -1687,10 +1536,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -1699,13 +1548,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB2" t="s" s="2">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1724,61 +1573,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AJ2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1942,7 +1791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -1950,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1962,10 +1811,10 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2022,13 +1871,13 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
+      <c r="AC2" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -2037,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2046,10 +1895,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
@@ -2067,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2079,7 +1928,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2103,62 +1952,62 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AJ2"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.54296875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2330,22 +2179,22 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2402,13 +2251,13 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
+      <c r="AC2" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -2417,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2426,10 +2275,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
@@ -2447,10 +2296,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -2459,10 +2308,10 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2481,30 +2330,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="29" max="29" customWidth="true" width="30.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.81640625" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2664,11 +2513,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2676,13 +2525,13 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2691,37 +2540,37 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2730,7 +2579,7 @@
         <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>90</v>
@@ -2745,19 +2594,19 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="AC2" s="6" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2766,16 +2615,16 @@
         <v>1234567890</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>86</v>
@@ -2793,10 +2642,10 @@
         <v>1234567890</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2805,10 +2654,10 @@
         <v>1234567890</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB2" t="s" s="0">
-        <v>187</v>
+        <v>119</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="139">
   <si>
     <t>WorflowName</t>
   </si>
@@ -406,24 +406,6 @@
     <t>Rsoft IT</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 3:41 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 3:50 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 3:56 PM</t>
-  </si>
-  <si>
     <t>Add New Enquiry Text Area</t>
   </si>
   <si>
@@ -437,6 +419,27 @@
   </si>
   <si>
     <t>Success Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-15 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:43 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:52 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:58 PM</t>
+  </si>
+  <si>
+    <t>Mr.</t>
   </si>
 </sst>
 </file>
@@ -806,64 +809,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="2"/>
-    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2"/>
+    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="2"/>
+    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="2"/>
+    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.453125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
     <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" style="2"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1071,13 +1074,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1086,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
@@ -1113,10 +1116,10 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1137,7 +1140,7 @@
         <v>122</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>86</v>
@@ -1170,7 +1173,7 @@
         <v>74</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1190,64 +1193,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1455,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1470,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
@@ -1497,10 +1500,10 @@
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1554,7 +1557,7 @@
         <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1573,61 +1576,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
@@ -1877,7 +1880,7 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -1951,63 +1954,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.54296875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
@@ -2257,7 +2260,7 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>79</v>
@@ -2330,30 +2333,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.81640625" customWidth="1"/>
-    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>115</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>123</v>
@@ -2657,7 +2660,7 @@
         <v>119</v>
       </c>
       <c r="BB2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="147">
   <si>
     <t>WorflowName</t>
   </si>
@@ -440,6 +440,30 @@
   </si>
   <si>
     <t>Mr.</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>09-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 3:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 3:15 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 3:22 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 3:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 4:10 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 4:16 PM</t>
   </si>
 </sst>
 </file>
@@ -815,55 +839,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2"/>
-    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1026,7 +1050,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1073,14 +1097,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
+      <c r="Q2" t="s" s="2">
+        <v>140</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1118,8 +1142,8 @@
       <c r="AC2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>133</v>
+      <c r="AD2" t="s" s="2">
+        <v>139</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1139,7 +1163,7 @@
       <c r="AJ2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AR2" s="2" t="s">
@@ -1172,8 +1196,8 @@
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>135</v>
+      <c r="BB2" t="s" s="2">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1199,55 +1223,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1410,7 +1434,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1457,14 +1481,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
+      <c r="Q2" t="s" s="2">
+        <v>140</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1502,8 +1526,8 @@
       <c r="AC2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>133</v>
+      <c r="AD2" t="s" s="2">
+        <v>139</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1556,8 +1580,8 @@
       <c r="BA2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>136</v>
+      <c r="BB2" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1582,52 +1606,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1960,54 +1984,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2339,21 +2363,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="29" max="29" customWidth="true" width="30.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,7 +2540,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>80</v>
       </c>
     </row>
@@ -2659,8 +2683,8 @@
       <c r="BA2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BB2" t="s">
-        <v>137</v>
+      <c r="BB2" t="s" s="0">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="152">
   <si>
     <t>WorflowName</t>
   </si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t>CT: Mon, Jan 06, 2025 at 4:16 PM</t>
+  </si>
+  <si>
+    <t>07-01-2025</t>
+  </si>
+  <si>
+    <t>10-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jan 07, 2025 at 1:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jan 07, 2025 at 1:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jan 07, 2025 at 1:36 PM</t>
   </si>
 </sst>
 </file>
@@ -1098,13 +1113,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>100</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1143,7 +1158,7 @@
         <v>127</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1197,7 +1212,7 @@
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1482,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>100</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1527,7 +1542,7 @@
         <v>128</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1581,7 +1596,7 @@
         <v>92</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2684,7 +2699,7 @@
         <v>119</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
